--- a/data/raw/demographics/US Population.xlsx
+++ b/data/raw/demographics/US Population.xlsx
@@ -28,7 +28,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Population (100K)</t>
+    <t>Population 100K</t>
   </si>
   <si>
     <t>Female</t>
